--- a/Sars Data.xlsx
+++ b/Sars Data.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/redasemlani/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbaker/Documents/GitHub/virus_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30642DE-269D-0B4E-AAA1-F5C53951BB19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="980" windowWidth="24160" windowHeight="12700" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="980" windowWidth="24160" windowHeight="12700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -122,20 +131,20 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Cases</t>
-  </si>
-  <si>
-    <t>Number of deaths</t>
-  </si>
-  <si>
-    <t>Case fatality ratio</t>
+    <t>SARS Cases</t>
+  </si>
+  <si>
+    <t>SARS Number of deaths</t>
+  </si>
+  <si>
+    <t>SARS Case fatality ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +190,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -448,20 +460,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="4" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -475,7 +487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="17">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="17">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -505,7 +517,7 @@
         <v>0.17131474103585656</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="17">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -520,7 +532,7 @@
         <v>6.5515299418058948E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="17">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -535,7 +547,7 @@
         <v>0.17037037037037037</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="17">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -550,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="17">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -565,7 +577,7 @@
         <v>0.1069364161849711</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="17">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -580,7 +592,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="17">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -595,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="17">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -610,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="17">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -625,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="17">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -640,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="17">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -655,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="17">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -670,7 +682,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="17">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -685,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -700,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -715,7 +727,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -730,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -745,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -760,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -775,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="17">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -790,7 +802,7 @@
         <v>0.13865546218487396</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -805,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="17">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -820,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="17">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -835,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -850,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="17">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -865,7 +877,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -880,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="17">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -895,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -910,13 +922,13 @@
         <v>7.9365079365079361E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="17">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
